--- a/chart.xlsx
+++ b/chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Desktop\fit3080\a1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CE0471-A888-4B55-BEC5-AA935342DBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01115CF3-B2A1-436C-B922-7C88984BCDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A16A39F0-C765-4940-8532-443CC2D5B8C3}"/>
   </bookViews>
@@ -30,10 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,10 +392,13 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L5" sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
@@ -423,11 +422,21 @@
       <c r="G1" s="2">
         <v>0</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="2">
+        <v>1.9949999999999998E-3</v>
+      </c>
+      <c r="I1" s="2">
+        <v>9.3499999999999996E-4</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="K1" s="2">
+        <v>9.5699999999999995E-5</v>
+      </c>
       <c r="L1">
         <f>AVERAGE(B1:K1)</f>
-        <v>6.6533333333333331E-4</v>
+        <v>8.0166999999999999E-4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -452,11 +461,21 @@
       <c r="G2" s="2">
         <v>5.9839999999999997E-3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="2">
+        <v>8.9759999999999996E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.9919999999999999E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2.9919999999999999E-3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.986E-3</v>
+      </c>
       <c r="L2">
         <f>AVERAGE(B2:K2)</f>
-        <v>4.9851666666666664E-3</v>
+        <v>4.9857E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -481,11 +500,21 @@
       <c r="G3" s="2">
         <v>6.2830999999999998E-2</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2">
+        <v>0.69414399999999998</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.3964000000000001E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.127661</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6.9752999999999996E-2</v>
+      </c>
       <c r="L3">
         <f t="shared" ref="L3:L10" si="0">AVERAGE(B3:K3)</f>
-        <v>7.7963833333333329E-2</v>
+        <v>0.13733049999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -510,11 +539,21 @@
       <c r="G4" s="2">
         <v>18.736315999999999</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2">
+        <v>6.7816000000000001E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>60.148705</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.5499309999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.410272</v>
+      </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>35.020283666666664</v>
+        <v>27.329842599999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -539,30 +578,28 @@
       <c r="G5" s="2">
         <v>8.7400690000000001</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2">
+        <v>24.347761999999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.20445199999999999</v>
+      </c>
+      <c r="J5">
+        <v>486.463998</v>
+      </c>
+      <c r="K5">
+        <v>0.34707300000000002</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>2.760714333333333</v>
+        <v>52.792757100000003</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="L6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="L7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -575,5 +612,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>